--- a/1조기업프로젝트_자료정리1.0/문서작성된곳/요구사항정의서/01조_요구사항정의서 통합본.xlsx
+++ b/1조기업프로젝트_자료정리1.0/문서작성된곳/요구사항정의서/01조_요구사항정의서 통합본.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project_01\1조기업프로젝트_자료정리1.0\일단 작성\요구사항정의서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ya_traval\1조기업프로젝트_자료정리1.0\문서작성된곳\요구사항정의서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17568" windowHeight="10752"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17568" windowHeight="10752" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항정의서_메인" sheetId="1" r:id="rId1"/>
@@ -1467,7 +1467,7 @@
   </sheetPr>
   <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -2482,7 +2482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
